--- a/vt_isp_irc.xlsx
+++ b/vt_isp_irc.xlsx
@@ -585,11 +585,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -626,31 +626,23 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -665,14 +657,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -687,24 +695,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -726,13 +725,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -748,6 +740,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Arial"/>
@@ -755,23 +762,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -804,25 +804,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,13 +834,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,13 +852,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,31 +876,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,25 +888,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,19 +924,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,19 +972,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,15 +1039,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1063,6 +1054,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1074,6 +1074,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1095,29 +1104,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1136,151 +1127,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1316,13 +1316,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1588,13 +1588,14 @@
   </sheetPr>
   <dimension ref="A1:BN22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J22"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="5" max="5" width="58.8571428571429" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31.1428571428571" customWidth="1"/>
     <col min="10" max="10" width="38.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
